--- a/perdida.xlsx
+++ b/perdida.xlsx
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -233,6 +241,9 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -547,7 +558,7 @@
     <col min="4" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -596,7 +607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -619,7 +630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -642,7 +653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -650,7 +661,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="3">
-        <v>2500</v>
+        <v>2375</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -664,8 +675,9 @@
       <c r="H5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -687,15 +699,16 @@
       <c r="H6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>2600</v>
       </c>
       <c r="E7" t="s">
@@ -710,8 +723,9 @@
       <c r="H7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -733,8 +747,9 @@
       <c r="H8">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -756,8 +771,9 @@
       <c r="H9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -779,8 +795,9 @@
       <c r="H10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -802,8 +819,9 @@
       <c r="H11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -826,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -849,7 +867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -872,7 +890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -895,7 +913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1269,7 +1287,7 @@
       </c>
       <c r="C33" s="5">
         <f>SUM(C2:C32)</f>
-        <v>85265</v>
+        <v>85140</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -1286,7 +1304,7 @@
       </c>
       <c r="C35" s="6">
         <f>C34-C33</f>
-        <v>99735</v>
+        <v>99860</v>
       </c>
     </row>
   </sheetData>

--- a/perdida.xlsx
+++ b/perdida.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -966,8 +966,8 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3">
-        <v>600</v>
+      <c r="C18" s="7">
+        <v>375</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C33" s="5">
         <f>SUM(C2:C32)</f>
-        <v>85140</v>
+        <v>84915</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C35" s="6">
         <f>C34-C33</f>
-        <v>99860</v>
+        <v>100085</v>
       </c>
     </row>
   </sheetData>

--- a/perdida.xlsx
+++ b/perdida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Empleador</t>
   </si>
@@ -136,58 +136,28 @@
     <t>resultado</t>
   </si>
   <si>
-    <t>Luis Antonio Cardenes: Marcelo</t>
-  </si>
-  <si>
     <t>Marina Altagracia de Jesus Mejia</t>
   </si>
   <si>
     <t>Luis Manuel Trinidad Perez: el gringo</t>
   </si>
   <si>
-    <t>Sandy Hernandez : Lala</t>
-  </si>
-  <si>
     <t>Elauteria calcaño bueno: yinette</t>
   </si>
   <si>
     <t>Eugenia Melo</t>
   </si>
   <si>
-    <t>Heramia Florian</t>
-  </si>
-  <si>
-    <t>Mayra Magalis</t>
-  </si>
-  <si>
     <t>Felix Alberto Encarnacion Mendez</t>
   </si>
   <si>
-    <t>Gely Ballenilla Peña: gelen</t>
-  </si>
-  <si>
     <t>Jose miguel Pimentel: El Rubio</t>
   </si>
   <si>
-    <t>Ramon Antonio de la cruz: Sandino</t>
-  </si>
-  <si>
-    <t>Francisca Rivera: Rosanna</t>
-  </si>
-  <si>
-    <t>Jose de la Rosa: Pilloyo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Belie Lopez : Bely </t>
   </si>
   <si>
-    <t>Enmanuel Arturo: manuel</t>
-  </si>
-  <si>
     <t>Moises contrera dias</t>
-  </si>
-  <si>
-    <t>Gabriel Jean</t>
   </si>
   <si>
     <t>Edwar florentino arias: javalis</t>
@@ -200,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +220,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -311,6 +311,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -653,10 +664,10 @@
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="12">
         <v>3000</v>
       </c>
       <c r="D2" s="3"/>
@@ -668,7 +679,7 @@
     <row r="3" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6">
         <v>500</v>
@@ -684,31 +695,32 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="12">
         <v>1000</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="12">
         <v>8400</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A6" s="3"/>
@@ -716,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="6">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -733,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="6">
-        <v>4100</v>
+        <v>3400</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -741,55 +753,55 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="12">
         <v>2300</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6">
-        <v>3970</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="12">
+        <v>2400</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="12">
         <v>300</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6">
-        <v>4450</v>
+        <v>4100</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -803,7 +815,7 @@
     <row r="12" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6">
         <v>1830</v>
@@ -820,10 +832,10 @@
     <row r="13" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -831,33 +843,30 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4">
-        <v>3500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6">
-        <v>500</v>
+        <v>3900</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="4">
-        <v>500</v>
-      </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6">
-        <v>4500</v>
+        <v>275</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -865,584 +874,420 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4900</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2800</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4">
-        <v>2800</v>
-      </c>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="12">
+        <v>250</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3500</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C18" s="6">
-        <v>2000</v>
+        <v>4825</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1275</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="12">
+        <v>3650</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6">
-        <v>250</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6">
+    </row>
+    <row r="21" spans="1:9" s="15" customFormat="1" ht="15.75">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="12">
+        <v>5150</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="12">
         <v>3500</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6">
-        <v>7145</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3650</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3335</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="12">
+        <v>4000</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="12">
+        <v>3250</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="12">
+        <v>10980</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="12">
         <v>1100</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6">
-        <v>5150</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3500</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="6">
-        <v>4000</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="6">
-        <v>3250</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="6">
-        <v>10980</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2250</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="12">
+        <v>987</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="6">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="C29" s="12">
+        <v>1700</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="13">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1300</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1290</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="12">
+        <v>3980</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C33" s="6">
-        <v>1100</v>
+        <v>4850</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="6">
-        <v>2550</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="6">
-        <v>987</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1700</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1951.66</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="6">
-        <v>17527</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3100</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3980</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="I33" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1375</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="12">
+        <v>2375</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="12">
+        <v>600</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="12">
+        <v>3800</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1400</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1850</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="6">
-        <v>5100</v>
-      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="4">
-        <v>2000</v>
-      </c>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="6">
-        <v>1375</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="6">
-        <v>7850</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="6">
-        <v>1210</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="6">
-        <v>2375</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="6">
-        <v>600</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="6">
-        <v>3800</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="6">
-        <v>1400</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="6">
-        <v>1850</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="6">
-        <v>3665</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="B54" s="2" t="s">
+    <row r="44" spans="1:9">
+      <c r="B44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="8">
-        <f>SUM(C2:C53)</f>
-        <v>164511.66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="2" t="s">
+      <c r="C44" s="8">
+        <f>SUM(C2:C43)</f>
+        <v>108767</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C45" s="8">
         <v>220997</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="B56" s="2" t="s">
+    <row r="46" spans="1:9">
+      <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="9">
-        <f>C55+I56-C54</f>
-        <v>99945.34</v>
-      </c>
-      <c r="I56" s="10">
-        <f>SUM(I1:I55)</f>
-        <v>43460</v>
+      <c r="C46" s="9">
+        <f>C45+I46-C44</f>
+        <v>125180</v>
+      </c>
+      <c r="I46" s="10">
+        <f>SUM(I1:I45)</f>
+        <v>12950</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:Z1918">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C46">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/perdida.xlsx
+++ b/perdida.xlsx
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="6">
-        <v>3400</v>
+        <v>3282</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="C44" s="8">
         <f>SUM(C2:C43)</f>
-        <v>108767</v>
+        <v>108649</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C46" s="9">
         <f>C45+I46-C44</f>
-        <v>125180</v>
+        <v>125298</v>
       </c>
       <c r="I46" s="10">
         <f>SUM(I1:I45)</f>

--- a/perdida.xlsx
+++ b/perdida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Empleador</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Jose miguel Pimentel: El Rubio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belie Lopez : Bely </t>
   </si>
   <si>
     <t>Moises contrera dias</t>
@@ -622,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -678,88 +675,85 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="6">
-        <v>500</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A4" s="3"/>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12">
-        <v>1000</v>
+        <v>8400</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12">
-        <v>8400</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5800</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4">
+        <v>3000</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6">
-        <v>5800</v>
+        <v>3282</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3282</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+    </row>
+    <row r="7" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2300</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="12">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -770,10 +764,10 @@
     <row r="9" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="12">
-        <v>2400</v>
+        <v>300</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -781,27 +775,30 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="12">
-        <v>300</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4100</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C11" s="6">
-        <v>4100</v>
+        <v>1830</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -815,10 +812,10 @@
     <row r="12" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6">
-        <v>1830</v>
+        <v>500</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -826,33 +823,30 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6">
-        <v>500</v>
+        <v>3900</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="4">
-        <v>500</v>
-      </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6">
-        <v>3900</v>
+        <v>275</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -860,27 +854,27 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6">
-        <v>275</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12">
+        <v>250</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="12">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -888,83 +882,83 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="12">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4825</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3650</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1100</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" s="15" customFormat="1" ht="15.75">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="12">
+        <v>5150</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="12">
         <v>3500</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="6">
-        <v>4825</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="12">
-        <v>3650</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1100</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" s="15" customFormat="1" ht="15.75">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="12">
-        <v>5150</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="12">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -975,41 +969,41 @@
     <row r="23" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C23" s="12">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
+      <c r="I23" s="13">
+        <v>3250</v>
+      </c>
     </row>
     <row r="24" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C24" s="12">
-        <v>3250</v>
+        <v>10980</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="13">
-        <v>3250</v>
-      </c>
     </row>
     <row r="25" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C25" s="12">
-        <v>10980</v>
+        <v>1100</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1020,10 +1014,10 @@
     <row r="26" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C26" s="12">
-        <v>1100</v>
+        <v>2250</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1034,10 +1028,10 @@
     <row r="27" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C27" s="12">
-        <v>2250</v>
+        <v>987</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -1048,41 +1042,41 @@
     <row r="28" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C28" s="12">
-        <v>987</v>
+        <v>1700</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
+      <c r="I28" s="13">
+        <v>1700</v>
+      </c>
     </row>
     <row r="29" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C29" s="12">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="13">
-        <v>1700</v>
-      </c>
     </row>
     <row r="30" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="12">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -1093,10 +1087,10 @@
     <row r="31" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A31" s="11"/>
       <c r="B31" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="12">
-        <v>1290</v>
+        <v>3980</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -1104,44 +1098,44 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="12">
-        <v>3980</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="6">
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="6">
         <v>4850</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4">
         <v>2000</v>
       </c>
+    </row>
+    <row r="33" spans="1:9" s="13" customFormat="1" ht="15.75">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1375</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="12">
-        <v>1375</v>
+        <v>2375</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -1152,10 +1146,10 @@
     <row r="35" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="12">
-        <v>2375</v>
+        <v>600</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -1166,10 +1160,10 @@
     <row r="36" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="12">
-        <v>600</v>
+        <v>3800</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -1180,10 +1174,10 @@
     <row r="37" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="12">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -1194,10 +1188,10 @@
     <row r="38" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" s="12">
-        <v>1400</v>
+        <v>1850</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -1208,10 +1202,10 @@
     <row r="39" spans="1:9" s="13" customFormat="1" ht="15.75">
       <c r="A39" s="11"/>
       <c r="B39" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" s="12">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -1219,19 +1213,15 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="15.75">
       <c r="A41" s="3"/>
@@ -1243,51 +1233,41 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+    <row r="43" spans="1:9">
+      <c r="B43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="8">
+        <f>SUM(C2:C42)</f>
+        <v>108149</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="8">
-        <f>SUM(C2:C43)</f>
-        <v>108649</v>
+        <v>220997</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="8">
-        <v>220997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="9">
-        <f>C45+I46-C44</f>
+      <c r="C45" s="9">
+        <f>C44+I45-C43</f>
         <v>125298</v>
       </c>
-      <c r="I46" s="10">
-        <f>SUM(I1:I45)</f>
-        <v>12950</v>
+      <c r="I45" s="10">
+        <f>SUM(I1:I44)</f>
+        <v>12450</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:Z1918">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="C46">
+  <conditionalFormatting sqref="C45">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/perdida.xlsx
+++ b/perdida.xlsx
@@ -8,16 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="CUENTA X COBRAR" sheetId="1" r:id="rId1"/>
+    <sheet name="junio" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>Empleador</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Cliente</t>
   </si>
@@ -161,13 +159,19 @@
   </si>
   <si>
     <t>Luis matos roso: oméri</t>
+  </si>
+  <si>
+    <t>pilloyo</t>
+  </si>
+  <si>
+    <t>Israel Morillo Medina: el guardia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,13 +216,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -248,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -280,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -307,23 +310,31 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -619,28 +630,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
-    <col min="4" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
+    <col min="3" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -655,619 +666,712 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A2" s="3"/>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="11">
         <v>3000</v>
       </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="11" t="s">
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="11">
         <v>8400</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5800</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="I4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
-        <v>3282</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="B5" s="11">
+        <v>2300</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="I5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12">
-        <v>2300</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
+      <c r="B6" s="11">
+        <v>2400</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12">
-        <v>2400</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B7" s="11">
         <v>300</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11">
         <v>4100</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1830</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="11">
+        <v>500</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1830</v>
-      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11">
+        <v>275</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6">
-        <v>500</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3900</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6">
-        <v>275</v>
-      </c>
+      <c r="B12" s="11">
+        <v>250</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="11">
+        <v>3500</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4825</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12">
-        <v>250</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3650</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1100</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="15.75">
+      <c r="A17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11">
+        <v>5150</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11">
         <v>3500</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="11">
+        <v>4000</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11">
+        <v>3250</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="11">
+        <v>10980</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1100</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2250</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="11">
+        <v>987</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1700</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1300</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1290</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3980</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1375</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2375</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A31" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="11">
+        <v>600</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="11">
+        <v>3800</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1400</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A34" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1850</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" s="12" customFormat="1" ht="15.75">
+      <c r="A35" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="11">
+        <v>3900</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="I37"/>
+      <c r="J37"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="8">
+        <f>SUM(B2:B38)</f>
+        <v>96217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="8">
+        <v>220997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9">
+        <f>B40-B39</f>
+        <v>124780</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2824" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
+    <col min="3" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4825</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="12">
-        <v>3650</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1100</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" s="15" customFormat="1" ht="15.75">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="12">
-        <v>5150</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="12">
-        <v>3500</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="12">
-        <v>4000</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="12">
-        <v>3250</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="13">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="12">
-        <v>10980</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="12">
-        <v>1100</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="12">
-        <v>2250</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="12">
-        <v>987</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1700</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="13">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1300</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="12">
-        <v>1290</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="12">
-        <v>3980</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="6">
-        <v>4850</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="12">
-        <v>1375</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="12">
-        <v>2375</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="12">
-        <v>600</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="12">
-        <v>3800</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1400</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="12">
-        <v>1850</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" ht="15.75">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="12">
-        <v>2000</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="2" t="s">
+      <c r="B24" s="8">
+        <f>SUM(B2:B23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="8">
-        <f>SUM(C2:C42)</f>
-        <v>108149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="2" t="s">
+      <c r="B25" s="8">
+        <v>220997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="8">
+      <c r="B26" s="9">
+        <f>B25-B24</f>
         <v>220997</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="9">
-        <f>C44+I45-C43</f>
-        <v>125298</v>
-      </c>
-      <c r="I45" s="10">
-        <f>SUM(I1:I44)</f>
-        <v>12450</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:Z1918">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="B26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
